--- a/IIB1_Hausübung_1/Recherchierte Grundlagen/Brandlast.xlsx
+++ b/IIB1_Hausübung_1/Recherchierte Grundlagen/Brandlast.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wiebke/Documents/Uni/Informatik im Bauwesen 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igora\source\Visual Studio\IIB1_UE1\IIB1_Hausübung_1\Recherchierte Grundlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="15360" yWindow="465" windowWidth="28800" windowHeight="16620" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Klassifizierung" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -289,24 +289,27 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -574,122 +577,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="27.1640625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="27.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="64" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -702,19 +705,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="40.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -722,7 +726,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -730,7 +734,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -738,7 +742,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -746,32 +750,32 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -779,12 +783,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -792,12 +796,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -808,24 +812,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="20.125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -835,54 +839,54 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="96" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -892,21 +896,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>61</v>
       </c>
@@ -914,7 +918,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -922,7 +926,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -939,12 +943,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -955,7 +959,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -963,7 +967,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>69</v>
       </c>
